--- a/data_dictonary.xlsx
+++ b/data_dictonary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tianshuliu/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671C2C49-12AF-B64E-917E-8B85B2DF092C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5DFF78F-6C49-4247-919E-5A2696C105DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{A5B76808-E3CD-8B44-9A91-0A5F5F721284}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="131">
   <si>
     <t>Field ID</t>
   </si>
@@ -406,13 +406,34 @@
   </si>
   <si>
     <t>Vitamin D</t>
+  </si>
+  <si>
+    <t>Death record format</t>
+  </si>
+  <si>
+    <t>Cancer record format</t>
+  </si>
+  <si>
+    <t>Death record origin</t>
+  </si>
+  <si>
+    <t>cancer record origin</t>
+  </si>
+  <si>
+    <t>Inpatient record origin</t>
+  </si>
+  <si>
+    <t>Inpatient record format</t>
+  </si>
+  <si>
+    <t>Date of myocardial infarction</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -474,6 +495,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -496,7 +523,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -514,12 +541,64 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -840,10 +919,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B72E7357-851C-F245-B6EF-5DAC09F3CF3A}">
-  <dimension ref="A1:E109"/>
+  <dimension ref="A1:E116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A92" activeCellId="3" sqref="A100:XFD100 A99:XFD99 A97:XFD97 A92:XFD92"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="D116" sqref="D116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2117,7 +2196,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="97" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="7">
         <v>30720</v>
       </c>
@@ -2125,7 +2204,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="98" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="7">
         <v>30660</v>
       </c>
@@ -2133,7 +2212,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="99" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="7">
         <v>30730</v>
       </c>
@@ -2141,7 +2220,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="100" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="7">
         <v>30790</v>
       </c>
@@ -2149,7 +2228,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="101" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="7">
         <v>30800</v>
       </c>
@@ -2157,7 +2236,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="102" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="7">
         <v>30810</v>
       </c>
@@ -2165,7 +2244,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="103" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="7">
         <v>30820</v>
       </c>
@@ -2173,7 +2252,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="104" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="7">
         <v>30830</v>
       </c>
@@ -2181,7 +2260,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="105" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="7">
         <v>30850</v>
       </c>
@@ -2189,7 +2268,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="106" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="7">
         <v>30840</v>
       </c>
@@ -2197,7 +2276,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="107" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="7">
         <v>30880</v>
       </c>
@@ -2205,7 +2284,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="108" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="7">
         <v>30670</v>
       </c>
@@ -2213,7 +2292,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="109" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="7">
         <v>30890</v>
       </c>
@@ -2221,9 +2300,88 @@
         <v>123</v>
       </c>
     </row>
+    <row r="110" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>40018</v>
+      </c>
+      <c r="B110" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D110">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>40019</v>
+      </c>
+      <c r="B111" t="s">
+        <v>125</v>
+      </c>
+      <c r="D111">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>40020</v>
+      </c>
+      <c r="B112" t="s">
+        <v>126</v>
+      </c>
+      <c r="D112">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>40021</v>
+      </c>
+      <c r="B113" t="s">
+        <v>127</v>
+      </c>
+      <c r="D113">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>40022</v>
+      </c>
+      <c r="B114" t="s">
+        <v>128</v>
+      </c>
+      <c r="D114">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>41253</v>
+      </c>
+      <c r="B115" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D115">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>42000</v>
+      </c>
+      <c r="B116" t="s">
+        <v>130</v>
+      </c>
+      <c r="D116">
+        <v>272</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A91" r:id="rId1" display="http://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=30620" xr:uid="{93CB8639-A63F-BB48-940D-02025DC60C06}"/>
@@ -2264,6 +2422,7 @@
     <hyperlink ref="B108" r:id="rId36" display="http://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=30670" xr:uid="{9CF56543-8CBB-4544-A059-688D4DB1A5DA}"/>
     <hyperlink ref="A109" r:id="rId37" display="http://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=30890" xr:uid="{30DB5E2F-CE08-6B4F-8F97-0E9061D24ABE}"/>
     <hyperlink ref="B109" r:id="rId38" display="http://biobank.ndph.ox.ac.uk/showcase/field.cgi?id=30890" xr:uid="{A638BBB5-7F5F-C04A-91CE-F528BBC8A64C}"/>
+    <hyperlink ref="B115" r:id="rId39" display="https://biobank.ndph.ox.ac.uk/ukb/field.cgi?id=41253" xr:uid="{752C504C-24B7-434E-B7DA-C87204788870}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
